--- a/Kalkulator.xlsx
+++ b/Kalkulator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WebDev\Projekty aplikacji\Kalkulator-druk wielkoformatowy excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C23FB7-6C51-49FF-B737-0DE8D0B3A261}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{02187A73-BCDE-4E31-B9AC-87ED8D4BEF98}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="743" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="130">
   <si>
     <t>WYDRUKI WIELKOFORMATOWE</t>
   </si>
@@ -64,9 +64,6 @@
     <t>Ilość</t>
   </si>
   <si>
-    <t>Nacinanie ploterowe</t>
-  </si>
-  <si>
     <t>WYCENA</t>
   </si>
   <si>
@@ -410,6 +407,27 @@
   </si>
   <si>
     <t>LEGENDA</t>
+  </si>
+  <si>
+    <t>Laminowanie</t>
+  </si>
+  <si>
+    <t>LAMINOWANIE</t>
+  </si>
+  <si>
+    <t>laminat 1</t>
+  </si>
+  <si>
+    <t>laminat 2</t>
+  </si>
+  <si>
+    <t>laminat 3</t>
+  </si>
+  <si>
+    <t>Koszt laminowania</t>
+  </si>
+  <si>
+    <t>standard</t>
   </si>
 </sst>
 </file>
@@ -1162,7 +1180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1324,16 +1342,16 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1354,48 +1372,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1408,7 +1384,52 @@
     <xf numFmtId="164" fontId="7" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1461,12 +1482,98 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="42">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC1C1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB3B3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC1C1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1629,66 +1736,6 @@
         <horizontal/>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC1C1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFB3B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC1C1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1712,66 +1759,77 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93FD8167-80FB-4162-9620-338E8CB1D9BC}" name="Tabela1" displayName="Tabela1" ref="B3:G12" totalsRowShown="0" headerRowDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93FD8167-80FB-4162-9620-338E8CB1D9BC}" name="Tabela1" displayName="Tabela1" ref="B3:G12" totalsRowShown="0" headerRowDxfId="41">
   <autoFilter ref="B3:G12" xr:uid="{72E04293-905B-48B7-BA79-F4057D7D9764}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{347F1ADB-C46D-403A-A6D4-0E2EC5E6E519}" name="Materiał"/>
-    <tableColumn id="2" xr3:uid="{D80A535D-C3BE-48E8-9FFD-6D5DE72E1C55}" name="Cena do 5 m2" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{D13A6D32-1813-417B-8229-797B5E091B95}" name="Cena 6-10 m2" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{CBB2240C-493C-4B80-B116-1A537E37285C}" name="Cena 11-15 m2" dataDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{25E4B13F-A820-4EBF-B2EE-CA06A061B016}" name="Cena 16-20 m2" dataDxfId="26"/>
-    <tableColumn id="6" xr3:uid="{32188B7E-2F29-40ED-A3C0-6B8E5CEDB1A3}" name="Cena powyżej 20m2" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{D80A535D-C3BE-48E8-9FFD-6D5DE72E1C55}" name="Cena do 5 m2" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{D13A6D32-1813-417B-8229-797B5E091B95}" name="Cena 6-10 m2" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{CBB2240C-493C-4B80-B116-1A537E37285C}" name="Cena 11-15 m2" dataDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{25E4B13F-A820-4EBF-B2EE-CA06A061B016}" name="Cena 16-20 m2" dataDxfId="37"/>
+    <tableColumn id="6" xr3:uid="{32188B7E-2F29-40ED-A3C0-6B8E5CEDB1A3}" name="Cena powyżej 20m2" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{36474754-9D79-4B91-BA01-7D3BF0FE870B}" name="Tabela110" displayName="Tabela110" ref="B3:F7" totalsRowShown="0" headerRowDxfId="12">
-  <autoFilter ref="B3:F7" xr:uid="{31871211-3C87-4FD2-BDAF-3D257E6AEFAE}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{704D8359-3098-4779-BDB9-3CF9B74EB8E2}" name="Materiał"/>
-    <tableColumn id="2" xr3:uid="{9CF5C0FD-794F-4216-A12F-A6EBE20F1807}" name="Cena do 5 m2" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{56F285B5-C28C-43D7-A13D-DB9F2CA77B60}" name="Cena 6-10 m2" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{39D0ACF9-7CF9-465B-9C6E-F092E0A1021A}" name="Cena 11-20 m2" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{E65C3AF0-5976-4240-8C0B-FD24FB77D2EE}" name="Cena powyżej 20m2" dataDxfId="8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{D7894A4B-69B4-4A9F-9AFF-54374DECA21B}" name="Tabela712" displayName="Tabela712" ref="B17:C22" totalsRowShown="0">
+  <autoFilter ref="B17:C22" xr:uid="{06AE2AE6-0398-4BDF-9F62-AF6429ED61EC}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{C95933CA-B24F-4B9F-91E5-D90D063FA4ED}" name="Narzut"/>
+    <tableColumn id="2" xr3:uid="{69D71DC3-2E1C-4AC4-AB9C-A8CA980C8395}" name="%" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{EB268829-E46B-4231-B55F-313F0E863FFE}" name="Tabela71213" displayName="Tabela71213" ref="B11:C15" totalsRowShown="0">
-  <autoFilter ref="B11:C15" xr:uid="{6C76A9DC-D061-42AF-91DA-18700479D62A}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{E19692A1-1781-4A60-B870-F5F94B4445EE}" name="Narzut"/>
-    <tableColumn id="2" xr3:uid="{06944115-AEAF-48BB-9D02-D70D5BEDFC81}" name="%" dataDxfId="7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{36474754-9D79-4B91-BA01-7D3BF0FE870B}" name="Tabela110" displayName="Tabela110" ref="B3:F7" totalsRowShown="0" headerRowDxfId="23">
+  <autoFilter ref="B3:F7" xr:uid="{31871211-3C87-4FD2-BDAF-3D257E6AEFAE}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{704D8359-3098-4779-BDB9-3CF9B74EB8E2}" name="Materiał"/>
+    <tableColumn id="2" xr3:uid="{9CF5C0FD-794F-4216-A12F-A6EBE20F1807}" name="Cena do 5 m2" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{56F285B5-C28C-43D7-A13D-DB9F2CA77B60}" name="Cena 6-10 m2" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{39D0ACF9-7CF9-465B-9C6E-F092E0A1021A}" name="Cena 11-20 m2" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{E65C3AF0-5976-4240-8C0B-FD24FB77D2EE}" name="Cena powyżej 20m2" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{EB268829-E46B-4231-B55F-313F0E863FFE}" name="Tabela71213" displayName="Tabela71213" ref="B11:C16" totalsRowShown="0">
+  <autoFilter ref="B11:C16" xr:uid="{6C76A9DC-D061-42AF-91DA-18700479D62A}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{E19692A1-1781-4A60-B870-F5F94B4445EE}" name="Narzut"/>
+    <tableColumn id="2" xr3:uid="{06944115-AEAF-48BB-9D02-D70D5BEDFC81}" name="%" dataDxfId="18"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{0D4DC6CF-9B51-4239-B4B0-4DB555C44648}" name="Tabela13" displayName="Tabela13" ref="B3:E6" totalsRowShown="0">
   <autoFilter ref="B3:E6" xr:uid="{3BAB02F6-3509-4D8C-BE10-CD28180C7598}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{8B1ED193-F251-4880-B351-F26895B6E74D}" name="parametr"/>
     <tableColumn id="2" xr3:uid="{59A3B658-2E67-4F59-A28C-FAA61AFD1476}" name="wariant A"/>
     <tableColumn id="3" xr3:uid="{ACC514A5-D384-47FB-B1EB-D72FF4E4F578}" name="wariant B"/>
-    <tableColumn id="4" xr3:uid="{B62D3D9D-57FB-4269-B589-D92195F1A9F8}" name="korzystniejszy wariant" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{B62D3D9D-57FB-4269-B589-D92195F1A9F8}" name="korzystniejszy wariant" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{3B677708-3CD5-488E-A7AD-21F285BD7D36}" name="Tabela1315" displayName="Tabela1315" ref="B11:E14" totalsRowShown="0">
   <autoFilter ref="B11:E14" xr:uid="{44302434-7CCD-4C97-A782-250CB9AA1861}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{178FB6CA-C770-4E0C-A1EA-01914F39B6F1}" name="parametr"/>
     <tableColumn id="2" xr3:uid="{B2ED617C-8E4C-4B8F-A34F-D26C71E16AD1}" name="wariant A"/>
     <tableColumn id="3" xr3:uid="{AC68C5FB-A43E-459C-9E10-F8E0FCD4C97E}" name="wariant B"/>
-    <tableColumn id="4" xr3:uid="{F0572276-8956-4693-82C7-C1A8B4EBB417}" name="korzystniejszy wariant" dataDxfId="5">
+    <tableColumn id="4" xr3:uid="{F0572276-8956-4693-82C7-C1A8B4EBB417}" name="korzystniejszy wariant" dataDxfId="16">
       <calculatedColumnFormula>IF('Pomocnicze-Obliczenia'!$C$14=0,IF('Pomocnicze-Obliczenia'!$D$14=0,0,'Pomocnicze-Obliczenia'!$D12),IF('Pomocnicze-Obliczenia'!$D$14=0,'Pomocnicze-Obliczenia'!$C12,IF('Pomocnicze-Obliczenia'!$C$14&lt;'Pomocnicze-Obliczenia'!$D$14,'Pomocnicze-Obliczenia'!$C12,'Pomocnicze-Obliczenia'!$D12)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1779,14 +1837,14 @@
 </table>
 </file>
 
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{D8617A1B-3148-4744-94EC-C64C9FD7D805}" name="Tabela15" displayName="Tabela15" ref="B19:E22" totalsRowShown="0" dataDxfId="4" tableBorderDxfId="3">
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{D8617A1B-3148-4744-94EC-C64C9FD7D805}" name="Tabela15" displayName="Tabela15" ref="B19:E22" totalsRowShown="0" dataDxfId="15" tableBorderDxfId="14">
   <autoFilter ref="B19:E22" xr:uid="{B68FFF2F-DEBC-4A03-93A7-CB3C79E6E45C}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{264A64EF-EBC0-4E6F-9108-850B122A20EF}" name="parametr"/>
-    <tableColumn id="2" xr3:uid="{6FF4AD06-D122-4920-8CCA-9A982EE70EEE}" name="wariant A" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{6F395B00-E415-41E0-B7E0-2181AEADFE09}" name="wariant B" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{8E0055A5-F46A-473B-B751-9562B003ECC4}" name="korzystniejszy wariant" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{6FF4AD06-D122-4920-8CCA-9A982EE70EEE}" name="wariant A" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{6F395B00-E415-41E0-B7E0-2181AEADFE09}" name="wariant B" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{8E0055A5-F46A-473B-B751-9562B003ECC4}" name="korzystniejszy wariant" dataDxfId="11">
       <calculatedColumnFormula>IF('Pomocnicze-Obliczenia'!$C$22=0,IF('Pomocnicze-Obliczenia'!$D$22=0,0,'Pomocnicze-Obliczenia'!$D20),IF('Pomocnicze-Obliczenia'!$D$22=0,'Pomocnicze-Obliczenia'!$C20,IF('Pomocnicze-Obliczenia'!$C$22&lt;'Pomocnicze-Obliczenia'!$D$22,'Pomocnicze-Obliczenia'!$C20,'Pomocnicze-Obliczenia'!$D20)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1795,62 +1853,77 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2E278F57-C57D-42FB-84B0-2DDD8631E708}" name="Tabela3" displayName="Tabela3" ref="B16:C19" totalsRowShown="0">
-  <autoFilter ref="B16:C19" xr:uid="{B2C71F5A-2F95-4694-902B-A51EB2ED2C28}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2E278F57-C57D-42FB-84B0-2DDD8631E708}" name="Tabela3" displayName="Tabela3" ref="B24:C27" totalsRowShown="0">
+  <autoFilter ref="B24:C27" xr:uid="{B2C71F5A-2F95-4694-902B-A51EB2ED2C28}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{AE216D30-F01C-4AA4-95C4-0883EF91686D}" name="Usługa"/>
-    <tableColumn id="2" xr3:uid="{6D2086DC-08B9-408C-9B7E-B035D967AA15}" name="Cena za m2" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{6D2086DC-08B9-408C-9B7E-B035D967AA15}" name="Cena za m2" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7D34871D-686A-4D33-BD20-934FD35334CE}" name="Tabela4" displayName="Tabela4" ref="B22:C26" totalsRowShown="0">
-  <autoFilter ref="B22:C26" xr:uid="{932DC52C-55F0-441A-8C4C-32F568B383C7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7D34871D-686A-4D33-BD20-934FD35334CE}" name="Tabela4" displayName="Tabela4" ref="B30:C34" totalsRowShown="0">
+  <autoFilter ref="B30:C34" xr:uid="{932DC52C-55F0-441A-8C4C-32F568B383C7}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{D564C846-3906-4DE1-A2F3-4BACBF21ED18}" name="Cięcie"/>
-    <tableColumn id="2" xr3:uid="{452FA48C-15BB-4938-BD85-9B9F2C7EB204}" name="Cena za m2" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{452FA48C-15BB-4938-BD85-9B9F2C7EB204}" name="Cena za m2" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2BFE30B0-BB4B-4089-9BB4-1BB537DAA36C}" name="Tabela5" displayName="Tabela5" ref="B29:C37" totalsRowShown="0">
-  <autoFilter ref="B29:C37" xr:uid="{956C8BE3-0BCA-4138-86EB-09AD6FC7D2D8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2BFE30B0-BB4B-4089-9BB4-1BB537DAA36C}" name="Tabela5" displayName="Tabela5" ref="B37:C45" totalsRowShown="0">
+  <autoFilter ref="B37:C45" xr:uid="{956C8BE3-0BCA-4138-86EB-09AD6FC7D2D8}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{6D6B72AF-7366-4EFF-822E-6A89C7F0F460}" name="Rodzaj podkładu"/>
-    <tableColumn id="2" xr3:uid="{A25EC903-9B02-48D6-8739-B86A5D7CE6B4}" name="Cena za m2" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{A25EC903-9B02-48D6-8739-B86A5D7CE6B4}" name="Cena za m2" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A2344B27-7A9C-4D53-B0F2-FAADE66DCBB3}" name="Tabela6" displayName="Tabela6" ref="B40:C43" totalsRowShown="0">
-  <autoFilter ref="B40:C43" xr:uid="{AA62947A-65DB-4428-9288-2C3961CE107B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A2344B27-7A9C-4D53-B0F2-FAADE66DCBB3}" name="Tabela6" displayName="Tabela6" ref="B48:C51" totalsRowShown="0">
+  <autoFilter ref="B48:C51" xr:uid="{AA62947A-65DB-4428-9288-2C3961CE107B}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{0A65D4B4-E23C-4156-888C-4BBD4339243D}" name="Nacinanie"/>
-    <tableColumn id="2" xr3:uid="{1074B862-3B63-4A0B-AEC3-20A9AB6B1611}" name="Cena za m2" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{1074B862-3B63-4A0B-AEC3-20A9AB6B1611}" name="Cena za m2" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A7007C5B-B443-49BB-AEAD-F83D25CF1D5E}" name="Tabela7" displayName="Tabela7" ref="B46:C50" totalsRowShown="0">
-  <autoFilter ref="B46:C50" xr:uid="{DA804319-BA0D-4684-9475-93E2776A4833}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A7007C5B-B443-49BB-AEAD-F83D25CF1D5E}" name="Tabela7" displayName="Tabela7" ref="B54:C59" totalsRowShown="0">
+  <autoFilter ref="B54:C59" xr:uid="{DA804319-BA0D-4684-9475-93E2776A4833}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{674AEA01-5425-4364-978D-2FEC2562A324}" name="Narzut"/>
-    <tableColumn id="2" xr3:uid="{B175A9C9-7092-4CB3-9449-FE843E84F9E9}" name="%" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{B175A9C9-7092-4CB3-9449-FE843E84F9E9}" name="%" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{499B8B24-B8BC-4670-98F3-2469FAF24CA2}" name="Tabela8" displayName="Tabela8" ref="B4:D8" totalsRowShown="0" tableBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{83DEF5BF-851F-47EB-9F82-2DBE009672EA}" name="Tabela2" displayName="Tabela2" ref="B16:G20" totalsRowShown="0" tableBorderDxfId="10">
+  <autoFilter ref="B16:G20" xr:uid="{FCC9CB57-901C-4B50-BAAD-D662AA9DB5EB}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{9FF01814-5F5B-4B12-BE7B-7D8721A3AA50}" name="Materiał"/>
+    <tableColumn id="2" xr3:uid="{3BE75767-8296-430F-943A-6B5C60E46CA9}" name="Cena do 5 m2" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{C16EEC30-F1D9-46CC-ABEF-AE77D5CB6CF3}" name="Cena 6-10 m2" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{2E6BC29F-2F53-4369-A72D-8FC7B238E7BB}" name="Cena 11-15 m2" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{495271F7-7676-411A-BC3B-3E145108B24E}" name="Cena 16-20 m2" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{FEA27020-4CE1-4321-85E2-F34C495DD426}" name="Cena powyżej 20m2" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{499B8B24-B8BC-4670-98F3-2469FAF24CA2}" name="Tabela8" displayName="Tabela8" ref="B4:D8" totalsRowShown="0" tableBorderDxfId="30">
   <autoFilter ref="B4:D8" xr:uid="{D1A6DEAE-5958-4B9C-A404-5DAB00DA1DA9}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{32BF3DB2-8494-4823-BC49-0343D33071FF}" name="Format"/>
@@ -1861,26 +1934,15 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{6356710A-F738-487D-8F8A-808C67D162A6}" name="Tabela10" displayName="Tabela10" ref="B12:F13" totalsRowShown="0" tableBorderDxfId="18">
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{6356710A-F738-487D-8F8A-808C67D162A6}" name="Tabela10" displayName="Tabela10" ref="B12:F13" totalsRowShown="0" tableBorderDxfId="29">
   <autoFilter ref="B12:F13" xr:uid="{7E861FB6-582C-4E3E-8785-E2A579DE04EF}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{2C3E900B-99F7-4EA6-A89F-52F8B5595354}" name="Materiał"/>
-    <tableColumn id="2" xr3:uid="{CB697684-D1FB-44C9-B58D-59EB46DD16DF}" name="cena do 5m2" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{5D1E7DEE-3B66-4FD7-97B2-35D696EF5B8B}" name="cena 6-10m2" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{4A6DDC2D-9C0C-4746-A468-C1CC35DCBB8C}" name="cena 11-20m2" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{6F3BAB34-1E8E-414C-988A-7627A608F519}" name="cena powyżej 20m2" dataDxfId="14"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{D7894A4B-69B4-4A9F-9AFF-54374DECA21B}" name="Tabela712" displayName="Tabela712" ref="B17:C21" totalsRowShown="0">
-  <autoFilter ref="B17:C21" xr:uid="{06AE2AE6-0398-4BDF-9F62-AF6429ED61EC}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C95933CA-B24F-4B9F-91E5-D90D063FA4ED}" name="Narzut"/>
-    <tableColumn id="2" xr3:uid="{69D71DC3-2E1C-4AC4-AB9C-A8CA980C8395}" name="%" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{CB697684-D1FB-44C9-B58D-59EB46DD16DF}" name="cena do 5m2" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{5D1E7DEE-3B66-4FD7-97B2-35D696EF5B8B}" name="cena 6-10m2" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{4A6DDC2D-9C0C-4746-A468-C1CC35DCBB8C}" name="cena 11-20m2" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{6F3BAB34-1E8E-414C-988A-7627A608F519}" name="cena powyżej 20m2" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2154,8 +2216,8 @@
   </sheetPr>
   <dimension ref="B1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2175,61 +2237,61 @@
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="88"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
     </row>
     <row r="3" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="82" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="84"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="85" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="87"/>
     </row>
     <row r="4" spans="2:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E4" s="17">
-        <f>('Ustawienia-druk wielkoformatowy'!C53/1000)*KALKULATOR!E7</f>
-        <v>0.63074999999999992</v>
-      </c>
-      <c r="H4" s="92" t="s">
-        <v>115</v>
-      </c>
-      <c r="I4" s="93"/>
+        <f>('Ustawienia-druk wielkoformatowy'!C62/1000)*KALKULATOR!E7</f>
+        <v>0.61813499999999999</v>
+      </c>
+      <c r="H4" s="72" t="s">
+        <v>114</v>
+      </c>
+      <c r="I4" s="73"/>
     </row>
     <row r="5" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="45" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="15">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E5" s="17">
         <f>IF(E4&gt;0,((C5/100)*(C6/100))*C12,0)</f>
-        <v>0.53999999999999992</v>
+        <v>0.50000000000000011</v>
       </c>
       <c r="H5" s="48" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I5" s="39" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2237,20 +2299,20 @@
         <v>3</v>
       </c>
       <c r="C6" s="15">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E6" s="17">
         <f>IF(E4&gt;0,E4-E5,0)</f>
-        <v>9.0749999999999997E-2</v>
+        <v>0.11813499999999988</v>
       </c>
       <c r="H6" s="49" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2261,57 +2323,57 @@
         <v>30</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E7" s="17">
         <f>'Pomocnicze-Obliczenia'!E6/100</f>
-        <v>0.75</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="H7" s="49" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I7" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E8" s="18">
-        <f>(VLOOKUP(C4,Tabela1[],IF(E4&gt;20,6,IF(E4&gt;15,5,IF(E4&gt;10,4,IF(E4&gt;5,3,2)))),0)*(IF(E4&gt;'Ustawienia-druk wielkoformatowy'!C55,E4,'Ustawienia-druk wielkoformatowy'!C55)))</f>
-        <v>18.922499999999999</v>
+        <f>(VLOOKUP(C4,Tabela1[],IF(E4&gt;20,6,IF(E4&gt;15,5,IF(E4&gt;10,4,IF(E4&gt;5,3,2)))),0)*(IF(E4&gt;'Ustawienia-druk wielkoformatowy'!C64,E4,'Ustawienia-druk wielkoformatowy'!C64)))</f>
+        <v>18.544049999999999</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I8" s="41">
-        <f>IF(I5="tak",E16,0)+IF(I6="tak",E32,0)+IF(I7="tak",E47,0)</f>
-        <v>24.662324999999999</v>
+        <f>IF(I5="tak",E17,0)+IF(I6="tak",E32,0)+IF(I7="tak",E47,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="45" t="s">
-        <v>8</v>
+        <v>123</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9" s="18">
-        <f>IF(C7="Brak",0,(VLOOKUP(C7,Tabela3[],2,0)*(IF(E4&gt;'Ustawienia-druk wielkoformatowy'!C55,E4,'Ustawienia-druk wielkoformatowy'!C55)))+(VLOOKUP(C8,Tabela4[],2,0)*(IF(E4&gt;'Ustawienia-druk wielkoformatowy'!C55,E4,'Ustawienia-druk wielkoformatowy'!C55)))+(VLOOKUP(C9,Tabela6[],2,0)*(IF(E4&gt;'Ustawienia-druk wielkoformatowy'!C55,E5,'Ustawienia-druk wielkoformatowy'!C55))))</f>
-        <v>6.3074999999999992</v>
+        <f>(VLOOKUP(C7,Tabela3[],2,0)*(IF(E4&gt;'Ustawienia-druk wielkoformatowy'!C64,E4,'Ustawienia-druk wielkoformatowy'!C64)))+(VLOOKUP(C8,Tabela4[],2,0)*(IF(E4&gt;'Ustawienia-druk wielkoformatowy'!C64,E4,'Ustawienia-druk wielkoformatowy'!C64)))</f>
+        <v>0</v>
       </c>
       <c r="H9" s="49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I9" s="40">
         <v>0.23</v>
@@ -2322,53 +2384,53 @@
         <v>5</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="E10" s="18">
-        <f>(VLOOKUP(C10,Tabela5[],2,0)*(IF(E5&gt;'Ustawienia-druk wielkoformatowy'!C55,E5,'Ustawienia-druk wielkoformatowy'!C55)))</f>
+        <f>VLOOKUP(C9,Tabela2[],IF(KALKULATOR!E4&gt;20,6,IF(KALKULATOR!E4&gt;15,5,IF(KALKULATOR!E4&gt;10,4,IF(KALKULATOR!E4&gt;5,3,2)))))*IF(KALKULATOR!E4&gt;'Ustawienia-druk wielkoformatowy'!C64,KALKULATOR!E4,'Ustawienia-druk wielkoformatowy'!C64)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="94" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="96">
+      <c r="H10" s="80" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="82">
         <f>I8+(I8*I9)</f>
-        <v>30.33465975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="19">
-        <v>0.15</v>
+      <c r="C11" s="19" t="s">
+        <v>129</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E11" s="18">
-        <f>SUM(E8:E10)</f>
-        <v>25.229999999999997</v>
-      </c>
-      <c r="H11" s="95"/>
-      <c r="I11" s="97"/>
+        <f>(VLOOKUP(C10,Tabela5[],2,0)*(IF(E5&gt;'Ustawienia-druk wielkoformatowy'!C64,E5,'Ustawienia-druk wielkoformatowy'!C64)))</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="81"/>
+      <c r="I11" s="83"/>
     </row>
     <row r="12" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="20">
-        <v>30</v>
-      </c>
-      <c r="D12" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="51">
-        <f>VLOOKUP(C11,Tabela7[],2,0)*E11</f>
-        <v>3.7844999999999995</v>
+      <c r="C12" s="117">
+        <v>50</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="18">
+        <f>SUM(E8:E11)</f>
+        <v>18.544049999999999</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2377,69 +2439,76 @@
         <v/>
       </c>
       <c r="C13" s="75"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="71"/>
+      <c r="D13" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="51">
+        <f>VLOOKUP(C11,Tabela7[],2,0)*E12</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="2:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="76"/>
       <c r="C14" s="77"/>
-      <c r="D14" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="55">
-        <f>SUM(E11:E12)</f>
-        <v>29.014499999999998</v>
-      </c>
+      <c r="D14" s="97"/>
+      <c r="E14" s="84"/>
       <c r="H14" s="65" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="76"/>
       <c r="C15" s="77"/>
-      <c r="D15" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="E15" s="24">
-        <v>0.15</v>
+      <c r="D15" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="55">
+        <f>SUM(E12:E13)</f>
+        <v>18.544049999999999</v>
       </c>
       <c r="H15" s="66" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="76"/>
       <c r="C16" s="77"/>
-      <c r="D16" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="22">
-        <f>E14-(E14*E15)</f>
-        <v>24.662324999999999</v>
+      <c r="D16" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" s="24">
+        <v>0.15</v>
       </c>
       <c r="H16" s="67" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="76"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="22">
+        <f>E15-(E15*E16)</f>
+        <v>15.762442499999999</v>
+      </c>
+      <c r="H17" s="68" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="78"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="43">
-        <f>E16/C12</f>
-        <v>0.82207750000000002</v>
-      </c>
-      <c r="H17" s="68" t="s">
+    <row r="18" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="78"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="43">
+        <f>E17/C12</f>
+        <v>0.31524884999999997</v>
+      </c>
+      <c r="H18" s="69" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="H18" s="69" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
@@ -2448,66 +2517,66 @@
     </row>
     <row r="20" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="2:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B21" s="80" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="81"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="91"/>
+      <c r="B21" s="94" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="96"/>
     </row>
     <row r="22" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="89" t="s">
+      <c r="B22" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="90"/>
-      <c r="D22" s="89" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="90"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="92" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="93"/>
     </row>
     <row r="23" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E23" s="29">
-        <f>('Ustawienia-plakaty'!C25/1000)*('Pomocnicze-Obliczenia'!E14/100)</f>
-        <v>0.12867299999999998</v>
+        <f>('Ustawienia-plakaty'!C26/1000)*('Pomocnicze-Obliczenia'!E14/100)</f>
+        <v>1.7871249999999999</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="45" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E24" s="17">
         <f>((VLOOKUP(C24,Tabela8[],2,0)/1000)*(VLOOKUP(C24,Tabela8[],3,0)/1000))*KALKULATOR!C26</f>
-        <v>6.2159999999999993E-2</v>
+        <v>1.2473999999999998</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="58">
-        <v>0.2</v>
+      <c r="C25" s="58" t="s">
+        <v>129</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E25" s="17">
         <f>E23-E24</f>
-        <v>6.6512999999999989E-2</v>
+        <v>0.53972500000000001</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2515,28 +2584,28 @@
         <v>7</v>
       </c>
       <c r="C26" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E26" s="17">
         <f>'Pomocnicze-Obliczenia'!E14/100</f>
-        <v>0.153</v>
+        <v>2.125</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="74" t="str">
         <f>IF(Komunikaty!C10="tak",Komunikaty!D10,"")</f>
-        <v>Ilość zamówienia jest mniejsza niż minimalna. Podane ceny zostały policzone od ilości minimalnej równej 0,5 m2</v>
+        <v/>
       </c>
       <c r="C27" s="75"/>
       <c r="D27" s="62" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E27" s="51">
-        <f>(VLOOKUP(C23,Tabela10[#All],IF(KALKULATOR!E23&gt;20,5,IF(KALKULATOR!E23&gt;10,4,IF(KALKULATOR!E23&gt;5,3,2))),0))*IF(KALKULATOR!E23&gt;'Ustawienia-plakaty'!C27,KALKULATOR!E23,'Ustawienia-plakaty'!C27)</f>
-        <v>15</v>
+        <f>(VLOOKUP(C23,Tabela10[#All],IF(KALKULATOR!E23&gt;20,5,IF(KALKULATOR!E23&gt;10,4,IF(KALKULATOR!E23&gt;5,3,2))),0))*IF(KALKULATOR!E23&gt;'Ustawienia-plakaty'!C28,KALKULATOR!E23,'Ustawienia-plakaty'!C28)</f>
+        <v>53.613749999999996</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2547,31 +2616,31 @@
       </c>
       <c r="E28" s="63">
         <f>E27*VLOOKUP(C25,Tabela712[],2,0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="76"/>
       <c r="C29" s="77"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="71"/>
+      <c r="D29" s="97"/>
+      <c r="E29" s="84"/>
     </row>
     <row r="30" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="76"/>
       <c r="C30" s="77"/>
       <c r="D30" s="60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E30" s="53">
         <f>SUM(E27:E28)</f>
-        <v>18</v>
+        <v>53.613749999999996</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="76"/>
       <c r="C31" s="77"/>
       <c r="D31" s="61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E31" s="31">
         <v>0.15</v>
@@ -2581,56 +2650,56 @@
       <c r="B32" s="76"/>
       <c r="C32" s="77"/>
       <c r="D32" s="59" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E32" s="30">
         <f>E30-(E30*E31)</f>
-        <v>15.3</v>
+        <v>45.571687499999996</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="78"/>
       <c r="C33" s="79"/>
       <c r="D33" s="57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E33" s="44">
         <f>IF(C26&gt;0,E32/C26,0)</f>
-        <v>7.65</v>
+        <v>4.5571687499999998</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="2:5" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B36" s="80" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36" s="81"/>
-      <c r="D36" s="81"/>
+      <c r="B36" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="71"/>
+      <c r="D36" s="71"/>
       <c r="E36" s="36"/>
     </row>
     <row r="37" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="89" t="s">
+      <c r="B37" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="90"/>
-      <c r="D37" s="89" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="90"/>
+      <c r="C37" s="93"/>
+      <c r="D37" s="92" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="93"/>
     </row>
     <row r="38" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38" s="45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E38" s="17">
-        <f>('Ustawienia-bannery'!C18/1000)*('Pomocnicze-Obliczenia'!E22/100)</f>
-        <v>0.52562500000000001</v>
+        <f>('Ustawienia-bannery'!C19/1000)*('Pomocnicze-Obliczenia'!E22/100)</f>
+        <v>0.61813499999999999</v>
       </c>
     </row>
     <row r="39" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -2638,14 +2707,14 @@
         <v>2</v>
       </c>
       <c r="C39" s="15">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E39" s="17">
         <f>IF(E38&gt;0,((C39/100)*(C40/100))*C42,0)</f>
-        <v>0.42</v>
+        <v>0.50000000000000011</v>
       </c>
     </row>
     <row r="40" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -2656,26 +2725,26 @@
         <v>10</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E40" s="35">
         <f>IF(E38&gt;0,E38-E39,0)</f>
-        <v>0.10562500000000002</v>
+        <v>0.11813499999999988</v>
       </c>
     </row>
     <row r="41" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="64">
-        <v>0.15</v>
+      <c r="C41" s="64" t="s">
+        <v>129</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E41" s="35">
         <f>'Pomocnicze-Obliczenia'!E22/100</f>
-        <v>0.625</v>
+        <v>0.73499999999999999</v>
       </c>
     </row>
     <row r="42" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2683,14 +2752,14 @@
         <v>7</v>
       </c>
       <c r="C42" s="20">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D42" s="50" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E42" s="51">
-        <f>VLOOKUP(C38,Tabela110[#All],IF(KALKULATOR!E38&gt;20,5,IF(KALKULATOR!E38&gt;10,4,IF(KALKULATOR!E38&gt;5,3,2))),0)*(IF(E38&gt;'Ustawienia-bannery'!C20,E38,'Ustawienia-bannery'!C20))</f>
-        <v>15.768750000000001</v>
+        <f>VLOOKUP(C38,Tabela110[#All],IF(KALKULATOR!E38&gt;20,5,IF(KALKULATOR!E38&gt;10,4,IF(KALKULATOR!E38&gt;5,3,2))),0)*(IF(E38&gt;'Ustawienia-bannery'!C21,E38,'Ustawienia-bannery'!C21))</f>
+        <v>18.544049999999999</v>
       </c>
     </row>
     <row r="43" spans="2:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2704,31 +2773,31 @@
       </c>
       <c r="E43" s="63">
         <f>E42*VLOOKUP(C41,Tabela71213[],2,0)</f>
-        <v>2.3653124999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="76"/>
       <c r="C44" s="77"/>
-      <c r="D44" s="72"/>
-      <c r="E44" s="73"/>
+      <c r="D44" s="98"/>
+      <c r="E44" s="99"/>
     </row>
     <row r="45" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" s="76"/>
       <c r="C45" s="77"/>
       <c r="D45" s="52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E45" s="55">
         <f>SUM(E42:E43)</f>
-        <v>18.134062499999999</v>
+        <v>18.544049999999999</v>
       </c>
     </row>
     <row r="46" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="76"/>
       <c r="C46" s="77"/>
       <c r="D46" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E46" s="24">
         <v>0.15</v>
@@ -2738,32 +2807,31 @@
       <c r="B47" s="76"/>
       <c r="C47" s="77"/>
       <c r="D47" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E47" s="22">
         <f>E45-(E45*E46)</f>
-        <v>15.413953124999999</v>
+        <v>15.762442499999999</v>
       </c>
     </row>
     <row r="48" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="78"/>
       <c r="C48" s="79"/>
       <c r="D48" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E48" s="43">
         <f>IF(C42&gt;0,E47/C42,0)</f>
-        <v>0.44039866071428568</v>
+        <v>0.31524884999999997</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection deleteColumns="0" deleteRows="0"/>
-  <mergeCells count="18">
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B13:C17"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="D13:E13"/>
+  <mergeCells count="17">
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="B27:C33"/>
+    <mergeCell ref="B43:C48"/>
+    <mergeCell ref="B13:C18"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="B2:E2"/>
@@ -2773,10 +2841,10 @@
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="B21:E21"/>
     <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="B27:C33"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B43:C48"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="D14:E14"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12 C26 C42" xr:uid="{8D250D10-D041-485D-A2AF-5E3DD910C5FF}">
@@ -2890,25 +2958,19 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EF43804B-0413-4005-96BD-F6F5F6F9C2E1}">
           <x14:formula1>
-            <xm:f>'Ustawienia-druk wielkoformatowy'!$B$17:$B$19</xm:f>
+            <xm:f>'Ustawienia-druk wielkoformatowy'!$B$25:$B$27</xm:f>
           </x14:formula1>
           <xm:sqref>C7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A26EBF2E-87AA-49C6-A866-C15DF3EC719B}">
           <x14:formula1>
-            <xm:f>'Ustawienia-druk wielkoformatowy'!$B$23:$B$26</xm:f>
+            <xm:f>'Ustawienia-druk wielkoformatowy'!$B$31:$B$34</xm:f>
           </x14:formula1>
           <xm:sqref>C8</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7A1D6839-725D-4981-9040-02DB21FD7A28}">
-          <x14:formula1>
-            <xm:f>'Ustawienia-druk wielkoformatowy'!$B$41:$B$43</xm:f>
-          </x14:formula1>
-          <xm:sqref>C9</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{88C274FC-3062-4D48-BC68-9E1C83C1DCDC}">
           <x14:formula1>
-            <xm:f>'Ustawienia-druk wielkoformatowy'!$B$30:$B$37</xm:f>
+            <xm:f>'Ustawienia-druk wielkoformatowy'!$B$38:$B$45</xm:f>
           </x14:formula1>
           <xm:sqref>C10</xm:sqref>
         </x14:dataValidation>
@@ -2936,21 +2998,27 @@
           </x14:formula1>
           <xm:sqref>I5:I7</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7A1D6839-725D-4981-9040-02DB21FD7A28}">
+          <x14:formula1>
+            <xm:f>'Ustawienia-druk wielkoformatowy'!$B$17:$B$20</xm:f>
+          </x14:formula1>
+          <xm:sqref>C9</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D6F3C083-F708-453D-8F0E-0F643B0EBBB2}">
           <x14:formula1>
-            <xm:f>'Ustawienia-druk wielkoformatowy'!$B$47:$B$50</xm:f>
+            <xm:f>'Ustawienia-druk wielkoformatowy'!$B$55:$B$59</xm:f>
           </x14:formula1>
           <xm:sqref>C11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{463DD88B-AE31-4A2A-9C12-C12317DFFFA9}">
           <x14:formula1>
-            <xm:f>'Ustawienia-plakaty'!$B$18:$B$21</xm:f>
+            <xm:f>'Ustawienia-plakaty'!$B$18:$B$22</xm:f>
           </x14:formula1>
           <xm:sqref>C25</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{90FB578D-0F33-4882-A687-19DAE60F33AD}">
           <x14:formula1>
-            <xm:f>'Ustawienia-bannery'!$B$12:$B$15</xm:f>
+            <xm:f>'Ustawienia-bannery'!$B$12:$B$16</xm:f>
           </x14:formula1>
           <xm:sqref>C41</xm:sqref>
         </x14:dataValidation>
@@ -2962,10 +3030,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEE8E9D0-E2F0-4A77-B95B-846C88600646}">
-  <dimension ref="B1:G55"/>
+  <dimension ref="B1:G64"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C17" sqref="B17:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2974,43 +3042,43 @@
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="103" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="105"/>
+      <c r="B2" s="104" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="106"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="5">
         <v>30</v>
@@ -3030,7 +3098,7 @@
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="5">
         <v>30</v>
@@ -3050,7 +3118,7 @@
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="5">
         <v>40</v>
@@ -3070,7 +3138,7 @@
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="5">
         <v>40</v>
@@ -3090,7 +3158,7 @@
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="5">
         <v>45</v>
@@ -3110,7 +3178,7 @@
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="5">
         <v>60</v>
@@ -3130,7 +3198,7 @@
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="5">
         <v>90</v>
@@ -3150,7 +3218,7 @@
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="5">
         <v>60</v>
@@ -3170,7 +3238,7 @@
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="5">
         <v>90</v>
@@ -3190,314 +3258,435 @@
     </row>
     <row r="14" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="2:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B15" s="99" t="s">
+      <c r="B15" s="100" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" s="107"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="101"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" s="5">
+        <v>30</v>
+      </c>
+      <c r="D18" s="4">
         <v>28</v>
       </c>
-      <c r="C15" s="100"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="E18" s="4">
+        <v>26</v>
+      </c>
+      <c r="F18" s="4">
+        <v>23</v>
+      </c>
+      <c r="G18" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" s="5">
+        <v>30</v>
+      </c>
+      <c r="D19" s="4">
+        <v>28</v>
+      </c>
+      <c r="E19" s="4">
+        <v>26</v>
+      </c>
+      <c r="F19" s="4">
+        <v>23</v>
+      </c>
+      <c r="G19" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" s="5">
+        <v>40</v>
+      </c>
+      <c r="D20" s="4">
+        <v>38</v>
+      </c>
+      <c r="E20" s="4">
+        <v>36</v>
+      </c>
+      <c r="F20" s="4">
+        <v>33</v>
+      </c>
+      <c r="G20" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="2:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B23" s="100" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="101"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>29</v>
       </c>
-      <c r="C16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="C26" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C27" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="2:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B29" s="100" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="101"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="4">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="4">
         <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="2:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B21" s="99" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="100"/>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="2:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B28" s="99" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="100"/>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="4">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="4">
-        <v>50</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C33" s="4">
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C34" s="4">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" s="4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36" s="4">
-        <v>60</v>
-      </c>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="2:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B36" s="100" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="101"/>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37" s="4">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="2:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B39" s="99" t="s">
-        <v>47</v>
-      </c>
-      <c r="C39" s="100"/>
+        <v>38</v>
+      </c>
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="4">
+        <v>35</v>
+      </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>30</v>
-      </c>
-      <c r="C40" t="s">
-        <v>18</v>
+        <v>40</v>
+      </c>
+      <c r="C40" s="4">
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C41" s="4">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C42" s="4">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="2:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B47" s="100" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="101"/>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="2:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B53" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="2:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B45" s="99" t="s">
+      <c r="C53" s="101"/>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C45" s="100"/>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" s="1" t="s">
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C55" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="C56" s="6">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C57" s="6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58" s="7" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="C47" s="6">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="C48" s="6">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="7" t="s">
+      <c r="C58" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C59" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="2:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B61" s="102" t="s">
+        <v>60</v>
+      </c>
+      <c r="C61" s="103"/>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B62" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C62" s="3">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B63" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C63" s="3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B64" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C64" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C50" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="52" spans="2:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B52" s="101" t="s">
-        <v>61</v>
-      </c>
-      <c r="C52" s="102"/>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C53" s="3">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C54" s="3">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C55" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B52:C52"/>
+  <mergeCells count="8">
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B61:C61"/>
     <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B15:G15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="6">
+  <tableParts count="7">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48FD0356-3052-4D42-913D-ED88360B8504}">
-  <dimension ref="B2:H27"/>
+  <dimension ref="B2:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:C21"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3511,26 +3700,26 @@
   <sheetData>
     <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B3" s="99" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" s="106"/>
-      <c r="D3" s="100"/>
+      <c r="B3" s="100" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="107"/>
+      <c r="D3" s="101"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" t="s">
         <v>64</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>65</v>
-      </c>
-      <c r="D4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5">
         <v>297</v>
@@ -3541,7 +3730,7 @@
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6">
         <v>210</v>
@@ -3552,7 +3741,7 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7">
         <v>148</v>
@@ -3563,7 +3752,7 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C8">
         <v>105</v>
@@ -3574,35 +3763,35 @@
     </row>
     <row r="10" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B11" s="99" t="s">
-        <v>108</v>
-      </c>
-      <c r="C11" s="106"/>
-      <c r="D11" s="106"/>
-      <c r="E11" s="106"/>
-      <c r="F11" s="100"/>
+      <c r="B11" s="100" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="107"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="101"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" t="s">
         <v>103</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>104</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>105</v>
-      </c>
-      <c r="F12" t="s">
-        <v>106</v>
       </c>
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C13" s="4">
         <v>30</v>
@@ -3619,86 +3808,94 @@
     </row>
     <row r="15" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B16" s="99" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="100"/>
+      <c r="B16" s="100" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="101"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="7">
-        <v>0.15</v>
+      <c r="B18" s="7" t="s">
+        <v>129</v>
       </c>
       <c r="C18" s="6">
-        <v>0.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="7">
         <v>0.2</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C20" s="6">
         <v>0.2</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="6">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="6">
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C21" s="6">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="2:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B24" s="101" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="102"/>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="3">
-        <v>841</v>
-      </c>
+    <row r="24" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="2:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B25" s="102" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="103"/>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C26" s="3">
-        <v>2.5</v>
+        <v>841</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="32">
+        <v>53</v>
+      </c>
+      <c r="C27" s="3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="32">
         <v>0.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B16:C16"/>
   </mergeCells>
@@ -3714,10 +3911,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8925F955-1A6F-4580-BFD4-1F074F9B35BE}">
-  <dimension ref="B1:F20"/>
+  <dimension ref="B1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3730,34 +3927,34 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="103" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="105"/>
+      <c r="B2" s="104" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="106"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C4" s="5">
         <v>30</v>
@@ -3774,7 +3971,7 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" s="5">
         <v>32</v>
@@ -3791,7 +3988,7 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" s="5">
         <v>34</v>
@@ -3808,7 +4005,7 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="5">
         <v>36</v>
@@ -3825,86 +4022,94 @@
     </row>
     <row r="9" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B10" s="99" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="100"/>
+      <c r="B10" s="100" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="101"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="7">
-        <v>0.15</v>
+      <c r="B12" s="7" t="s">
+        <v>129</v>
       </c>
       <c r="C12" s="6">
-        <v>0.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="7">
         <v>0.2</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C14" s="6">
         <v>0.2</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="6">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="6">
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C15" s="6">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B17" s="101" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="102"/>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="3">
-        <v>841</v>
-      </c>
+    <row r="17" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B18" s="102" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="103"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C19" s="3">
-        <v>2.5</v>
+        <v>841</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C20" s="3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="3">
         <v>0.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
     <mergeCell ref="B10:C10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3933,192 +4138,192 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="107" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="110"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" t="s">
         <v>89</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>90</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>91</v>
-      </c>
-      <c r="E3" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C4">
-        <f>IF((0.1*'Ustawienia-druk wielkoformatowy'!C53)&gt;=(KALKULATOR!C5+2*(0.1*'Ustawienia-druk wielkoformatowy'!C54)),ROUNDDOWN((0.1*'Ustawienia-druk wielkoformatowy'!C53)/(KALKULATOR!C5+2*(0.1*'Ustawienia-druk wielkoformatowy'!C54)),0),0)</f>
-        <v>6</v>
+        <f>IF((0.1*'Ustawienia-druk wielkoformatowy'!C62)&gt;=(KALKULATOR!C5+2*(0.1*'Ustawienia-druk wielkoformatowy'!C63)),ROUNDDOWN((0.1*'Ustawienia-druk wielkoformatowy'!C62)/(KALKULATOR!C5+2*(0.1*'Ustawienia-druk wielkoformatowy'!C63)),0),0)</f>
+        <v>8</v>
       </c>
       <c r="D4">
-        <f>IF((0.1*'Ustawienia-druk wielkoformatowy'!C53)&gt;=(KALKULATOR!C6+2*(0.1*'Ustawienia-druk wielkoformatowy'!C54)),ROUNDDOWN((0.1*'Ustawienia-druk wielkoformatowy'!C53)/(KALKULATOR!C6+2*(0.1*'Ustawienia-druk wielkoformatowy'!C54)),0),0)</f>
-        <v>5</v>
+        <f>IF((0.1*'Ustawienia-druk wielkoformatowy'!C62)&gt;=(KALKULATOR!C6+2*(0.1*'Ustawienia-druk wielkoformatowy'!C63)),ROUNDDOWN((0.1*'Ustawienia-druk wielkoformatowy'!C62)/(KALKULATOR!C6+2*(0.1*'Ustawienia-druk wielkoformatowy'!C63)),0),0)</f>
+        <v>8</v>
       </c>
       <c r="E4" s="37">
         <f>IF('Pomocnicze-Obliczenia'!E6='Pomocnicze-Obliczenia'!C6,Tabela13[[#This Row],[wariant A]],IF('Pomocnicze-Obliczenia'!E6='Pomocnicze-Obliczenia'!D6,Tabela13[[#This Row],[wariant B]],0))</f>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C5">
         <f>IF('Pomocnicze-Obliczenia'!C4&gt;0,ROUNDUP(KALKULATOR!C12/'Pomocnicze-Obliczenia'!C4,0),0)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <f>IF('Pomocnicze-Obliczenia'!D4&gt;0,ROUNDUP(KALKULATOR!C12/'Pomocnicze-Obliczenia'!D4,0),0)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E5" s="37">
         <f>IF('Pomocnicze-Obliczenia'!E6='Pomocnicze-Obliczenia'!C6,Tabela13[[#This Row],[wariant A]],IF('Pomocnicze-Obliczenia'!E6='Pomocnicze-Obliczenia'!D6,Tabela13[[#This Row],[wariant B]],0))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6">
-        <f>'Pomocnicze-Obliczenia'!C5*(KALKULATOR!C6+2*(0.1*'Ustawienia-druk wielkoformatowy'!C54))</f>
-        <v>77.5</v>
+        <f>'Pomocnicze-Obliczenia'!C5*(KALKULATOR!C6+2*(0.1*'Ustawienia-druk wielkoformatowy'!C63))</f>
+        <v>73.5</v>
       </c>
       <c r="D6">
-        <f>'Pomocnicze-Obliczenia'!D5*(KALKULATOR!C5+2*(0.1*'Ustawienia-druk wielkoformatowy'!C54))</f>
-        <v>75</v>
+        <f>'Pomocnicze-Obliczenia'!D5*(KALKULATOR!C5+2*(0.1*'Ustawienia-druk wielkoformatowy'!C63))</f>
+        <v>73.5</v>
       </c>
       <c r="E6" s="37">
         <f>IF('Pomocnicze-Obliczenia'!C6=0,IF('Pomocnicze-Obliczenia'!D6=0,0,'Pomocnicze-Obliczenia'!D6),IF('Pomocnicze-Obliczenia'!D6=0,'Pomocnicze-Obliczenia'!C6,IF('Pomocnicze-Obliczenia'!C6&lt;'Pomocnicze-Obliczenia'!D6,'Pomocnicze-Obliczenia'!C6,'Pomocnicze-Obliczenia'!D6)))</f>
-        <v>75</v>
+        <v>73.5</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="107" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="109"/>
+      <c r="B10" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="110"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" t="s">
         <v>89</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>90</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>91</v>
-      </c>
-      <c r="E11" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C12">
-        <f>IF(((0.1*VLOOKUP(KALKULATOR!C24,Tabela8[],2,0))+(2*(0.1*'Ustawienia-plakaty'!C26)))&gt;0,ROUNDDOWN((0.1*'Ustawienia-plakaty'!C25)/((0.1*VLOOKUP(KALKULATOR!C24,Tabela8[],2,0))+(2*(0.1*'Ustawienia-plakaty'!C26))),0),0)</f>
-        <v>5</v>
+        <f>IF(((0.1*VLOOKUP(KALKULATOR!C24,Tabela8[],2,0))+(2*(0.1*'Ustawienia-plakaty'!C27)))&gt;0,ROUNDDOWN((0.1*'Ustawienia-plakaty'!C26)/((0.1*VLOOKUP(KALKULATOR!C24,Tabela8[],2,0))+(2*(0.1*'Ustawienia-plakaty'!C27))),0),0)</f>
+        <v>2</v>
       </c>
       <c r="D12">
-        <f>IF(((0.1*VLOOKUP(KALKULATOR!C24,Tabela8[],3,0))+(2*(0.1*'Ustawienia-plakaty'!C26)))&gt;0,ROUNDDOWN((0.1*'Ustawienia-plakaty'!C25)/((0.1*VLOOKUP(KALKULATOR!C24,Tabela8[],3,0))+(2*(0.1*'Ustawienia-plakaty'!C26))),0),0)</f>
-        <v>3</v>
+        <f>IF(((0.1*VLOOKUP(KALKULATOR!C24,Tabela8[],3,0))+(2*(0.1*'Ustawienia-plakaty'!C27)))&gt;0,ROUNDDOWN((0.1*'Ustawienia-plakaty'!C26)/((0.1*VLOOKUP(KALKULATOR!C24,Tabela8[],3,0))+(2*(0.1*'Ustawienia-plakaty'!C27))),0),0)</f>
+        <v>1</v>
       </c>
       <c r="E12" s="37">
         <f>IF('Pomocnicze-Obliczenia'!$C$14=0,IF('Pomocnicze-Obliczenia'!$D$14=0,0,'Pomocnicze-Obliczenia'!$D12),IF('Pomocnicze-Obliczenia'!$D$14=0,'Pomocnicze-Obliczenia'!$C12,IF('Pomocnicze-Obliczenia'!$C$14&lt;'Pomocnicze-Obliczenia'!$D$14,'Pomocnicze-Obliczenia'!$C12,'Pomocnicze-Obliczenia'!$D12)))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C13">
         <f>IF('Pomocnicze-Obliczenia'!C12&gt;0,ROUNDUP(KALKULATOR!C26/'Pomocnicze-Obliczenia'!C12,0))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D13">
         <f>IF('Pomocnicze-Obliczenia'!D12&gt;0,ROUNDUP(KALKULATOR!C26/'Pomocnicze-Obliczenia'!D12,0))</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E13" s="37">
         <f>IF('Pomocnicze-Obliczenia'!$C$14=0,IF('Pomocnicze-Obliczenia'!$D$14=0,0,'Pomocnicze-Obliczenia'!$D13),IF('Pomocnicze-Obliczenia'!$D$14=0,'Pomocnicze-Obliczenia'!$C13,IF('Pomocnicze-Obliczenia'!$C$14&lt;'Pomocnicze-Obliczenia'!$D$14,'Pomocnicze-Obliczenia'!$C13,'Pomocnicze-Obliczenia'!$D13)))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C14">
-        <f>(0.1*(VLOOKUP(KALKULATOR!C24,Tabela8[],3,0)+2*'Ustawienia-plakaty'!C26))*C13</f>
-        <v>21.5</v>
+        <f>(0.1*(VLOOKUP(KALKULATOR!C24,Tabela8[],3,0)+2*'Ustawienia-plakaty'!C27))*C13</f>
+        <v>212.5</v>
       </c>
       <c r="D14">
-        <f>(0.1*(VLOOKUP(KALKULATOR!C24,Tabela8[],2,0)+2*'Ustawienia-plakaty'!C26))*D13</f>
-        <v>15.3</v>
+        <f>(0.1*(VLOOKUP(KALKULATOR!C24,Tabela8[],2,0)+2*'Ustawienia-plakaty'!C27))*D13</f>
+        <v>302</v>
       </c>
       <c r="E14" s="37">
         <f>IF('Pomocnicze-Obliczenia'!$C$14=0,IF('Pomocnicze-Obliczenia'!$D$14=0,0,'Pomocnicze-Obliczenia'!$D14),IF('Pomocnicze-Obliczenia'!$D$14=0,'Pomocnicze-Obliczenia'!$C14,IF('Pomocnicze-Obliczenia'!$C$14&lt;'Pomocnicze-Obliczenia'!$D$14,'Pomocnicze-Obliczenia'!$C14,'Pomocnicze-Obliczenia'!$D14)))</f>
-        <v>15.3</v>
+        <v>212.5</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="2:5" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B18" s="110" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="111"/>
-      <c r="D18" s="111"/>
-      <c r="E18" s="112"/>
+      <c r="B18" s="111" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="112"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="113"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" t="s">
         <v>89</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>90</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>91</v>
-      </c>
-      <c r="E19" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C20" s="1">
-        <f>IF((0.1*'Ustawienia-bannery'!C18)&gt;(KALKULATOR!C39+2*(0.1*'Ustawienia-bannery'!C19)),ROUNDDOWN((0.1*'Ustawienia-bannery'!C18)/(KALKULATOR!C39+2*(0.1*'Ustawienia-bannery'!C19)),0),0)</f>
-        <v>6</v>
+        <f>IF((0.1*'Ustawienia-bannery'!C19)&gt;(KALKULATOR!C39+2*(0.1*'Ustawienia-bannery'!C20)),ROUNDDOWN((0.1*'Ustawienia-bannery'!C19)/(KALKULATOR!C39+2*(0.1*'Ustawienia-bannery'!C20)),0),0)</f>
+        <v>8</v>
       </c>
       <c r="D20" s="1">
-        <f>IF((0.1*'Ustawienia-bannery'!C18)&gt;(KALKULATOR!C40+2*(0.1*'Ustawienia-bannery'!C19)),ROUNDDOWN((0.1*'Ustawienia-bannery'!C18)/(KALKULATOR!C40+2*(0.1*'Ustawienia-bannery'!C19)),0),0)</f>
+        <f>IF((0.1*'Ustawienia-bannery'!C19)&gt;(KALKULATOR!C40+2*(0.1*'Ustawienia-bannery'!C20)),ROUNDDOWN((0.1*'Ustawienia-bannery'!C19)/(KALKULATOR!C40+2*(0.1*'Ustawienia-bannery'!C20)),0),0)</f>
         <v>8</v>
       </c>
       <c r="E20" s="37">
@@ -4128,36 +4333,36 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C21" s="1">
         <f>IF('Pomocnicze-Obliczenia'!C20&gt;0,ROUNDUP(KALKULATOR!C42/'Pomocnicze-Obliczenia'!C20,0),0)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D21" s="1">
         <f>IF('Pomocnicze-Obliczenia'!D20&gt;0,ROUNDUP(KALKULATOR!C42/'Pomocnicze-Obliczenia'!D20,0),0)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E21" s="37">
         <f>IF('Pomocnicze-Obliczenia'!$C$22=0,IF('Pomocnicze-Obliczenia'!$D$22=0,0,'Pomocnicze-Obliczenia'!$D21),IF('Pomocnicze-Obliczenia'!$D$22=0,'Pomocnicze-Obliczenia'!$C21,IF('Pomocnicze-Obliczenia'!$C$22&lt;'Pomocnicze-Obliczenia'!$D$22,'Pomocnicze-Obliczenia'!$C21,'Pomocnicze-Obliczenia'!$D21)))</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C22" s="1">
-        <f>'Pomocnicze-Obliczenia'!C21*(KALKULATOR!C40+2*(0.1*'Ustawienia-bannery'!C19))</f>
-        <v>63</v>
+        <f>'Pomocnicze-Obliczenia'!C21*(KALKULATOR!C40+2*(0.1*'Ustawienia-bannery'!C20))</f>
+        <v>73.5</v>
       </c>
       <c r="D22" s="1">
-        <f>'Pomocnicze-Obliczenia'!D21*(KALKULATOR!C39+2*(0.1*'Ustawienia-bannery'!C19))</f>
-        <v>62.5</v>
+        <f>'Pomocnicze-Obliczenia'!D21*(KALKULATOR!C39+2*(0.1*'Ustawienia-bannery'!C20))</f>
+        <v>73.5</v>
       </c>
       <c r="E22" s="37">
         <f>IF('Pomocnicze-Obliczenia'!$C$22=0,IF('Pomocnicze-Obliczenia'!$D$22=0,0,'Pomocnicze-Obliczenia'!$D22),IF('Pomocnicze-Obliczenia'!$D$22=0,'Pomocnicze-Obliczenia'!$C22,IF('Pomocnicze-Obliczenia'!$C$22&lt;'Pomocnicze-Obliczenia'!$D$22,'Pomocnicze-Obliczenia'!$C22,'Pomocnicze-Obliczenia'!$D22)))</f>
-        <v>62.5</v>
+        <v>73.5</v>
       </c>
     </row>
   </sheetData>
@@ -4194,111 +4399,111 @@
   <sheetData>
     <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:14" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="116"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>86</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="45" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4" s="11" t="str">
-        <f>IF(KALKULATOR!E4&lt;'Ustawienia-druk wielkoformatowy'!C55,"tak","nie")</f>
+        <f>IF(KALKULATOR!E4&lt;'Ustawienia-druk wielkoformatowy'!C64,"tak","nie")</f>
         <v>nie</v>
       </c>
       <c r="D4" s="13" t="str">
-        <f>"Ilość zamówienia jest mniejsza niż minimalna. Podane ceny zostały policzone od ilości minimalnej równej "&amp;'Ustawienia-druk wielkoformatowy'!C55&amp;" m2"</f>
+        <f>"Ilość zamówienia jest mniejsza niż minimalna. Podane ceny zostały policzone od ilości minimalnej równej "&amp;'Ustawienia-druk wielkoformatowy'!C64&amp;" m2"</f>
         <v>Ilość zamówienia jest mniejsza niż minimalna. Podane ceny zostały policzone od ilości minimalnej równej 0,5 m2</v>
       </c>
     </row>
     <row r="5" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C5" s="10" t="str">
         <f>IF('Pomocnicze-Obliczenia'!E6=0,"tak","nie")</f>
         <v>nie</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:14" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="113" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="114"/>
-      <c r="D8" s="115"/>
+      <c r="B8" s="114" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="115"/>
+      <c r="D8" s="116"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>86</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>87</v>
       </c>
       <c r="J9" s="34"/>
       <c r="K9" s="33"/>
     </row>
     <row r="10" spans="2:14" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C10" s="11" t="str">
-        <f>IF(KALKULATOR!E23&gt;'Ustawienia-plakaty'!C27,"nie","tak")</f>
-        <v>tak</v>
+        <f>IF(KALKULATOR!E23&gt;'Ustawienia-plakaty'!C28,"nie","tak")</f>
+        <v>nie</v>
       </c>
       <c r="D10" s="13" t="str">
-        <f>"Ilość zamówienia jest mniejsza niż minimalna. Podane ceny zostały policzone od ilości minimalnej równej "&amp;'Ustawienia-plakaty'!C27&amp;" m2"</f>
+        <f>"Ilość zamówienia jest mniejsza niż minimalna. Podane ceny zostały policzone od ilości minimalnej równej "&amp;'Ustawienia-plakaty'!C28&amp;" m2"</f>
         <v>Ilość zamówienia jest mniejsza niż minimalna. Podane ceny zostały policzone od ilości minimalnej równej 0,5 m2</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="2:14" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="113" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="114"/>
-      <c r="D13" s="115"/>
+      <c r="B13" s="114" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="115"/>
+      <c r="D13" s="116"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>86</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="45" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C15" s="11" t="str">
-        <f>IF(KALKULATOR!E38&gt;'Ustawienia-bannery'!C20,"nie","tak")</f>
+        <f>IF(KALKULATOR!E38&gt;'Ustawienia-bannery'!C21,"nie","tak")</f>
         <v>nie</v>
       </c>
       <c r="D15" s="13" t="str">
-        <f>"Ilość zamówienia jest mniejsza niż minimalna. Podane ceny zostały policzone od ilości minimalnej równej "&amp;'Ustawienia-bannery'!C20&amp;" m2"</f>
+        <f>"Ilość zamówienia jest mniejsza niż minimalna. Podane ceny zostały policzone od ilości minimalnej równej "&amp;'Ustawienia-bannery'!C21&amp;" m2"</f>
         <v>Ilość zamówienia jest mniejsza niż minimalna. Podane ceny zostały policzone od ilości minimalnej równej 0,5 m2</v>
       </c>
       <c r="M15" s="33"/>
@@ -4306,14 +4511,14 @@
     </row>
     <row r="16" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C16" s="10" t="str">
         <f>IF('Pomocnicze-Obliczenia'!E22=0,"tak","nie")</f>
         <v>nie</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
